--- a/Social charging model/AlbatrossProcessedVehicleTrips.xlsx
+++ b/Social charging model/AlbatrossProcessedVehicleTrips.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/p_hogeveen_tue_nl/Documents/Documents/GitHub/Holon/HOLON/Base/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naudl\Documents\GitHub\social-charging-model\Social charging model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{29B25285-D0E8-431A-A16E-B540AF1E5230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8A94FA2-4705-4622-B0E4-58437D87FE70}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D43B6E-9C32-4958-92D6-C34DF795F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6017BC1-6FAF-4018-A039-DA80AEFB0BF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6017BC1-6FAF-4018-A039-DA80AEFB0BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -391,7 +391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -533,7 +533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,21 +544,22 @@
   <dimension ref="A1:AX584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <pane ySplit="1" topLeftCell="A581" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I593" sqref="I593"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +711,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>55</v>
       </c>
@@ -862,7 +863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>323</v>
       </c>
@@ -996,7 +997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>411</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>380</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>326</v>
       </c>
@@ -1371,7 +1372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>335</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>485</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>81</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>98</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>328</v>
       </c>
@@ -1924,7 +1925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>415</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>472</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>74</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>164</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>280</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>319</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>329</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>364</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>457</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>501</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>43</v>
       </c>
@@ -3011,7 +3012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>86</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>91</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>141</v>
       </c>
@@ -3278,7 +3279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>191</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>196</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>224</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>225</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>299</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>399</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>405</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>487</v>
       </c>
@@ -3990,7 +3991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>495</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>570</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>47</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>66</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>67</v>
       </c>
@@ -4408,7 +4409,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>82</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>87</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>118</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>144</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>153</v>
       </c>
@@ -4808,7 +4809,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>195</v>
       </c>
@@ -4888,7 +4889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>220</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>241</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>243</v>
       </c>
@@ -5128,7 +5129,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>251</v>
       </c>
@@ -5208,7 +5209,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>275</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>286</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>289</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>304</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>325</v>
       </c>
@@ -5608,7 +5609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>392</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>400</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>441</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>445</v>
       </c>
@@ -5928,7 +5929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>448</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>476</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>510</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>514</v>
       </c>
@@ -6248,7 +6249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>537</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>580</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>5</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -6550,7 +6551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>22</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>26</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>36</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>37</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>39</v>
       </c>
@@ -6976,7 +6977,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>41</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>50</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>56</v>
       </c>
@@ -7189,7 +7190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>59</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>78</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>125</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>126</v>
       </c>
@@ -7473,7 +7474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>159</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>165</v>
       </c>
@@ -7615,7 +7616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>173</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>183</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>198</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>205</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>213</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>246</v>
       </c>
@@ -8041,7 +8042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>278</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>282</v>
       </c>
@@ -8183,7 +8184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>283</v>
       </c>
@@ -8254,7 +8255,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>285</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>287</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>295</v>
       </c>
@@ -8467,7 +8468,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>301</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>314</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>324</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>342</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>349</v>
       </c>
@@ -8822,7 +8823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>355</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>360</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>368</v>
       </c>
@@ -9035,7 +9036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>382</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>383</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>417</v>
       </c>
@@ -9248,7 +9249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>424</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>426</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>431</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>437</v>
       </c>
@@ -9532,7 +9533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>442</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>455</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>466</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>471</v>
       </c>
@@ -9816,7 +9817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>488</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>489</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>499</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>500</v>
       </c>
@@ -10100,7 +10101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>511</v>
       </c>
@@ -10171,7 +10172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>513</v>
       </c>
@@ -10242,7 +10243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>525</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>540</v>
       </c>
@@ -10384,7 +10385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>541</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>546</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>548</v>
       </c>
@@ -10597,7 +10598,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>553</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>562</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>567</v>
       </c>
@@ -10810,7 +10811,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>569</v>
       </c>
@@ -10881,7 +10882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>571</v>
       </c>
@@ -10952,7 +10953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>578</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>579</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>3</v>
       </c>
@@ -11156,7 +11157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>11</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>65</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>68</v>
       </c>
@@ -11342,7 +11343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>70</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>76</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>110</v>
       </c>
@@ -11528,7 +11529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>115</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>127</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>135</v>
       </c>
@@ -11714,7 +11715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -11776,7 +11777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>157</v>
       </c>
@@ -11838,7 +11839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>161</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>163</v>
       </c>
@@ -11962,7 +11963,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>180</v>
       </c>
@@ -12024,7 +12025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>181</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>182</v>
       </c>
@@ -12148,7 +12149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>187</v>
       </c>
@@ -12210,7 +12211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>193</v>
       </c>
@@ -12272,7 +12273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>208</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>221</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>226</v>
       </c>
@@ -12458,7 +12459,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>227</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>237</v>
       </c>
@@ -12582,7 +12583,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>247</v>
       </c>
@@ -12644,7 +12645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>250</v>
       </c>
@@ -12706,7 +12707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>255</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>256</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>260</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>277</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>291</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>300</v>
       </c>
@@ -13078,7 +13079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>306</v>
       </c>
@@ -13140,7 +13141,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>317</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>320</v>
       </c>
@@ -13264,7 +13265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>331</v>
       </c>
@@ -13326,7 +13327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>334</v>
       </c>
@@ -13388,7 +13389,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>339</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>353</v>
       </c>
@@ -13512,7 +13513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>354</v>
       </c>
@@ -13574,7 +13575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>356</v>
       </c>
@@ -13636,7 +13637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>365</v>
       </c>
@@ -13698,7 +13699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>374</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>377</v>
       </c>
@@ -13822,7 +13823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>379</v>
       </c>
@@ -13884,7 +13885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>389</v>
       </c>
@@ -13946,7 +13947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>410</v>
       </c>
@@ -14008,7 +14009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>413</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>421</v>
       </c>
@@ -14132,7 +14133,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>430</v>
       </c>
@@ -14194,7 +14195,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>443</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>447</v>
       </c>
@@ -14318,7 +14319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>449</v>
       </c>
@@ -14380,7 +14381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>451</v>
       </c>
@@ -14442,7 +14443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>452</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>454</v>
       </c>
@@ -14566,7 +14567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>460</v>
       </c>
@@ -14628,7 +14629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>465</v>
       </c>
@@ -14690,7 +14691,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>481</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>483</v>
       </c>
@@ -14814,7 +14815,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>490</v>
       </c>
@@ -14876,7 +14877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>503</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>517</v>
       </c>
@@ -15000,7 +15001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>520</v>
       </c>
@@ -15062,7 +15063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>531</v>
       </c>
@@ -15124,7 +15125,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>544</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>545</v>
       </c>
@@ -15248,7 +15249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>555</v>
       </c>
@@ -15310,7 +15311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>558</v>
       </c>
@@ -15372,7 +15373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>565</v>
       </c>
@@ -15434,7 +15435,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>568</v>
       </c>
@@ -15496,7 +15497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>572</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>573</v>
       </c>
@@ -15620,7 +15621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>576</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>6</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>14</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>20</v>
       </c>
@@ -15894,7 +15895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>21</v>
       </c>
@@ -15947,7 +15948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>24</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>30</v>
       </c>
@@ -16053,7 +16054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>35</v>
       </c>
@@ -16106,7 +16107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>40</v>
       </c>
@@ -16159,7 +16160,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>44</v>
       </c>
@@ -16212,7 +16213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>46</v>
       </c>
@@ -16265,7 +16266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>48</v>
       </c>
@@ -16318,7 +16319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>57</v>
       </c>
@@ -16371,7 +16372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>60</v>
       </c>
@@ -16424,7 +16425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>73</v>
       </c>
@@ -16477,7 +16478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>77</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>80</v>
       </c>
@@ -16583,7 +16584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>83</v>
       </c>
@@ -16636,7 +16637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>84</v>
       </c>
@@ -16689,7 +16690,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>89</v>
       </c>
@@ -16742,7 +16743,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>93</v>
       </c>
@@ -16795,7 +16796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>100</v>
       </c>
@@ -16848,7 +16849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>102</v>
       </c>
@@ -16901,7 +16902,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>104</v>
       </c>
@@ -16954,7 +16955,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>105</v>
       </c>
@@ -17007,7 +17008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>107</v>
       </c>
@@ -17060,7 +17061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>111</v>
       </c>
@@ -17113,7 +17114,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>119</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>124</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>130</v>
       </c>
@@ -17272,7 +17273,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>140</v>
       </c>
@@ -17325,7 +17326,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>152</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>155</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>162</v>
       </c>
@@ -17484,7 +17485,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>171</v>
       </c>
@@ -17537,7 +17538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>176</v>
       </c>
@@ -17590,7 +17591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>178</v>
       </c>
@@ -17643,7 +17644,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>189</v>
       </c>
@@ -17696,7 +17697,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>190</v>
       </c>
@@ -17749,7 +17750,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>194</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>201</v>
       </c>
@@ -17855,7 +17856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>202</v>
       </c>
@@ -17908,7 +17909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>210</v>
       </c>
@@ -17961,7 +17962,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>212</v>
       </c>
@@ -18014,7 +18015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>215</v>
       </c>
@@ -18067,7 +18068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>218</v>
       </c>
@@ -18120,7 +18121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>222</v>
       </c>
@@ -18173,7 +18174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>228</v>
       </c>
@@ -18226,7 +18227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>232</v>
       </c>
@@ -18279,7 +18280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>233</v>
       </c>
@@ -18332,7 +18333,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>240</v>
       </c>
@@ -18385,7 +18386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>244</v>
       </c>
@@ -18438,7 +18439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>249</v>
       </c>
@@ -18491,7 +18492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>252</v>
       </c>
@@ -18544,7 +18545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -18597,7 +18598,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>263</v>
       </c>
@@ -18650,7 +18651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>276</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>281</v>
       </c>
@@ -18756,7 +18757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>292</v>
       </c>
@@ -18809,7 +18810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>297</v>
       </c>
@@ -18862,7 +18863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>305</v>
       </c>
@@ -18915,7 +18916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>311</v>
       </c>
@@ -18968,7 +18969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>312</v>
       </c>
@@ -19021,7 +19022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>322</v>
       </c>
@@ -19074,7 +19075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>330</v>
       </c>
@@ -19127,7 +19128,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>341</v>
       </c>
@@ -19180,7 +19181,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>358</v>
       </c>
@@ -19233,7 +19234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>362</v>
       </c>
@@ -19286,7 +19287,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>367</v>
       </c>
@@ -19339,7 +19340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>372</v>
       </c>
@@ -19392,7 +19393,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>378</v>
       </c>
@@ -19445,7 +19446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>385</v>
       </c>
@@ -19498,7 +19499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>387</v>
       </c>
@@ -19551,7 +19552,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>393</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>394</v>
       </c>
@@ -19657,7 +19658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>395</v>
       </c>
@@ -19710,7 +19711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>396</v>
       </c>
@@ -19763,7 +19764,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>403</v>
       </c>
@@ -19816,7 +19817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>404</v>
       </c>
@@ -19869,7 +19870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>412</v>
       </c>
@@ -19922,7 +19923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>419</v>
       </c>
@@ -19975,7 +19976,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>420</v>
       </c>
@@ -20028,7 +20029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>428</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>429</v>
       </c>
@@ -20134,7 +20135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>432</v>
       </c>
@@ -20187,7 +20188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>433</v>
       </c>
@@ -20240,7 +20241,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>435</v>
       </c>
@@ -20293,7 +20294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>438</v>
       </c>
@@ -20346,7 +20347,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>440</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>467</v>
       </c>
@@ -20452,7 +20453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>473</v>
       </c>
@@ -20505,7 +20506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>475</v>
       </c>
@@ -20558,7 +20559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>478</v>
       </c>
@@ -20611,7 +20612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>484</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>491</v>
       </c>
@@ -20717,7 +20718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>492</v>
       </c>
@@ -20770,7 +20771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>497</v>
       </c>
@@ -20823,7 +20824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>504</v>
       </c>
@@ -20876,7 +20877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>508</v>
       </c>
@@ -20929,7 +20930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>512</v>
       </c>
@@ -20982,7 +20983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>515</v>
       </c>
@@ -21035,7 +21036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>519</v>
       </c>
@@ -21088,7 +21089,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>527</v>
       </c>
@@ -21141,7 +21142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>532</v>
       </c>
@@ -21194,7 +21195,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>533</v>
       </c>
@@ -21247,7 +21248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>542</v>
       </c>
@@ -21300,7 +21301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>550</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>556</v>
       </c>
@@ -21406,7 +21407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>557</v>
       </c>
@@ -21459,7 +21460,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>564</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>582</v>
       </c>
@@ -21565,7 +21566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
@@ -21609,7 +21610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>4</v>
       </c>
@@ -21653,7 +21654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>12</v>
       </c>
@@ -21697,7 +21698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>17</v>
       </c>
@@ -21741,7 +21742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>19</v>
       </c>
@@ -21785,7 +21786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>28</v>
       </c>
@@ -21829,7 +21830,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>31</v>
       </c>
@@ -21873,7 +21874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>49</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>54</v>
       </c>
@@ -21961,7 +21962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>69</v>
       </c>
@@ -22005,7 +22006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>71</v>
       </c>
@@ -22049,7 +22050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>79</v>
       </c>
@@ -22093,7 +22094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>88</v>
       </c>
@@ -22137,7 +22138,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>90</v>
       </c>
@@ -22181,7 +22182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>92</v>
       </c>
@@ -22225,7 +22226,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>109</v>
       </c>
@@ -22269,7 +22270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>114</v>
       </c>
@@ -22313,7 +22314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>121</v>
       </c>
@@ -22357,7 +22358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>128</v>
       </c>
@@ -22401,7 +22402,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>129</v>
       </c>
@@ -22445,7 +22446,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>131</v>
       </c>
@@ -22489,7 +22490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>132</v>
       </c>
@@ -22533,7 +22534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>142</v>
       </c>
@@ -22577,7 +22578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>146</v>
       </c>
@@ -22621,7 +22622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>149</v>
       </c>
@@ -22665,7 +22666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>160</v>
       </c>
@@ -22709,7 +22710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>169</v>
       </c>
@@ -22753,7 +22754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>179</v>
       </c>
@@ -22797,7 +22798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>184</v>
       </c>
@@ -22841,7 +22842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>185</v>
       </c>
@@ -22885,7 +22886,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>186</v>
       </c>
@@ -22929,7 +22930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>188</v>
       </c>
@@ -22973,7 +22974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>199</v>
       </c>
@@ -23017,7 +23018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>204</v>
       </c>
@@ -23061,7 +23062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>206</v>
       </c>
@@ -23105,7 +23106,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>207</v>
       </c>
@@ -23149,7 +23150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>209</v>
       </c>
@@ -23193,7 +23194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>211</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>216</v>
       </c>
@@ -23281,7 +23282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>219</v>
       </c>
@@ -23325,7 +23326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>229</v>
       </c>
@@ -23369,7 +23370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>231</v>
       </c>
@@ -23413,7 +23414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>253</v>
       </c>
@@ -23457,7 +23458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>261</v>
       </c>
@@ -23501,7 +23502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>262</v>
       </c>
@@ -23545,7 +23546,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>265</v>
       </c>
@@ -23589,7 +23590,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>269</v>
       </c>
@@ -23633,7 +23634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>273</v>
       </c>
@@ -23677,7 +23678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>279</v>
       </c>
@@ -23721,7 +23722,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>288</v>
       </c>
@@ -23765,7 +23766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>294</v>
       </c>
@@ -23809,7 +23810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>298</v>
       </c>
@@ -23853,7 +23854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>307</v>
       </c>
@@ -23897,7 +23898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>308</v>
       </c>
@@ -23941,7 +23942,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>315</v>
       </c>
@@ -23985,7 +23986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>316</v>
       </c>
@@ -24029,7 +24030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>332</v>
       </c>
@@ -24073,7 +24074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>337</v>
       </c>
@@ -24117,7 +24118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>343</v>
       </c>
@@ -24161,7 +24162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>345</v>
       </c>
@@ -24205,7 +24206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>359</v>
       </c>
@@ -24249,7 +24250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>369</v>
       </c>
@@ -24293,7 +24294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -24337,7 +24338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>388</v>
       </c>
@@ -24381,7 +24382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>397</v>
       </c>
@@ -24425,7 +24426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>401</v>
       </c>
@@ -24469,7 +24470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>402</v>
       </c>
@@ -24513,7 +24514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>407</v>
       </c>
@@ -24557,7 +24558,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>414</v>
       </c>
@@ -24601,7 +24602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>423</v>
       </c>
@@ -24645,7 +24646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>425</v>
       </c>
@@ -24689,7 +24690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>434</v>
       </c>
@@ -24733,7 +24734,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>436</v>
       </c>
@@ -24777,7 +24778,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>444</v>
       </c>
@@ -24821,7 +24822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>446</v>
       </c>
@@ -24865,7 +24866,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>456</v>
       </c>
@@ -24909,7 +24910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>459</v>
       </c>
@@ -24953,7 +24954,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>461</v>
       </c>
@@ -24997,7 +24998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>468</v>
       </c>
@@ -25041,7 +25042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>470</v>
       </c>
@@ -25085,7 +25086,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>477</v>
       </c>
@@ -25129,7 +25130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>480</v>
       </c>
@@ -25173,7 +25174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>493</v>
       </c>
@@ -25217,7 +25218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>505</v>
       </c>
@@ -25261,7 +25262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>516</v>
       </c>
@@ -25305,7 +25306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>518</v>
       </c>
@@ -25349,7 +25350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>521</v>
       </c>
@@ -25393,7 +25394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>523</v>
       </c>
@@ -25437,7 +25438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>524</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>528</v>
       </c>
@@ -25525,7 +25526,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>535</v>
       </c>
@@ -25569,7 +25570,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>536</v>
       </c>
@@ -25613,7 +25614,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>547</v>
       </c>
@@ -25657,7 +25658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>549</v>
       </c>
@@ -25701,7 +25702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>551</v>
       </c>
@@ -25745,7 +25746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>554</v>
       </c>
@@ -25789,7 +25790,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>575</v>
       </c>
@@ -25833,7 +25834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>8</v>
       </c>
@@ -25868,7 +25869,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>9</v>
       </c>
@@ -25903,7 +25904,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>16</v>
       </c>
@@ -25938,7 +25939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>18</v>
       </c>
@@ -25973,7 +25974,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>27</v>
       </c>
@@ -26008,7 +26009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>29</v>
       </c>
@@ -26043,7 +26044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>32</v>
       </c>
@@ -26078,7 +26079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>34</v>
       </c>
@@ -26113,7 +26114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>38</v>
       </c>
@@ -26148,7 +26149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>45</v>
       </c>
@@ -26183,7 +26184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>51</v>
       </c>
@@ -26218,7 +26219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>53</v>
       </c>
@@ -26253,7 +26254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>58</v>
       </c>
@@ -26288,7 +26289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>61</v>
       </c>
@@ -26323,7 +26324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>62</v>
       </c>
@@ -26358,7 +26359,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>63</v>
       </c>
@@ -26393,7 +26394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>64</v>
       </c>
@@ -26428,7 +26429,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>75</v>
       </c>
@@ -26463,7 +26464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>85</v>
       </c>
@@ -26498,7 +26499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>97</v>
       </c>
@@ -26533,7 +26534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>113</v>
       </c>
@@ -26568,7 +26569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>116</v>
       </c>
@@ -26603,7 +26604,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>117</v>
       </c>
@@ -26638,7 +26639,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>120</v>
       </c>
@@ -26673,7 +26674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>122</v>
       </c>
@@ -26708,7 +26709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>143</v>
       </c>
@@ -26743,7 +26744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>147</v>
       </c>
@@ -26778,7 +26779,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>148</v>
       </c>
@@ -26813,7 +26814,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>154</v>
       </c>
@@ -26848,7 +26849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>168</v>
       </c>
@@ -26883,7 +26884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>174</v>
       </c>
@@ -26918,7 +26919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>217</v>
       </c>
@@ -26953,7 +26954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>223</v>
       </c>
@@ -26988,7 +26989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>238</v>
       </c>
@@ -27023,7 +27024,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>239</v>
       </c>
@@ -27058,7 +27059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>245</v>
       </c>
@@ -27093,7 +27094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>248</v>
       </c>
@@ -27128,7 +27129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>254</v>
       </c>
@@ -27163,7 +27164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>257</v>
       </c>
@@ -27198,7 +27199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>268</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>270</v>
       </c>
@@ -27268,7 +27269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>271</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>293</v>
       </c>
@@ -27338,7 +27339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>296</v>
       </c>
@@ -27373,7 +27374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>302</v>
       </c>
@@ -27408,7 +27409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>318</v>
       </c>
@@ -27443,7 +27444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>338</v>
       </c>
@@ -27478,7 +27479,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>340</v>
       </c>
@@ -27513,7 +27514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>344</v>
       </c>
@@ -27548,7 +27549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>347</v>
       </c>
@@ -27583,7 +27584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>350</v>
       </c>
@@ -27618,7 +27619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>351</v>
       </c>
@@ -27653,7 +27654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>352</v>
       </c>
@@ -27688,7 +27689,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>357</v>
       </c>
@@ -27723,7 +27724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>361</v>
       </c>
@@ -27758,7 +27759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>363</v>
       </c>
@@ -27793,7 +27794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>370</v>
       </c>
@@ -27828,7 +27829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>376</v>
       </c>
@@ -27863,7 +27864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>384</v>
       </c>
@@ -27898,7 +27899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>390</v>
       </c>
@@ -27933,7 +27934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>391</v>
       </c>
@@ -27968,7 +27969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>408</v>
       </c>
@@ -28003,7 +28004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>409</v>
       </c>
@@ -28038,7 +28039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>427</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>458</v>
       </c>
@@ -28108,7 +28109,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>462</v>
       </c>
@@ -28143,7 +28144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>464</v>
       </c>
@@ -28178,7 +28179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>469</v>
       </c>
@@ -28213,7 +28214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -28248,7 +28249,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>482</v>
       </c>
@@ -28283,7 +28284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>486</v>
       </c>
@@ -28318,7 +28319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>494</v>
       </c>
@@ -28353,7 +28354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>498</v>
       </c>
@@ -28388,7 +28389,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>507</v>
       </c>
@@ -28423,7 +28424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>522</v>
       </c>
@@ -28458,7 +28459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>529</v>
       </c>
@@ -28493,7 +28494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>530</v>
       </c>
@@ -28528,7 +28529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>534</v>
       </c>
@@ -28563,7 +28564,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>539</v>
       </c>
@@ -28598,7 +28599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>543</v>
       </c>
@@ -28633,7 +28634,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>561</v>
       </c>
@@ -28668,7 +28669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>581</v>
       </c>
@@ -28703,7 +28704,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2</v>
       </c>
@@ -28729,7 +28730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>13</v>
       </c>
@@ -28755,7 +28756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>15</v>
       </c>
@@ -28781,7 +28782,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>23</v>
       </c>
@@ -28807,7 +28808,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>33</v>
       </c>
@@ -28833,7 +28834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>52</v>
       </c>
@@ -28859,7 +28860,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>95</v>
       </c>
@@ -28885,7 +28886,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>96</v>
       </c>
@@ -28911,7 +28912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>99</v>
       </c>
@@ -28937,7 +28938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>101</v>
       </c>
@@ -28963,7 +28964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>103</v>
       </c>
@@ -28989,7 +28990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>106</v>
       </c>
@@ -29015,7 +29016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>108</v>
       </c>
@@ -29041,7 +29042,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>112</v>
       </c>
@@ -29067,7 +29068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>133</v>
       </c>
@@ -29093,7 +29094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>134</v>
       </c>
@@ -29119,7 +29120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>136</v>
       </c>
@@ -29145,7 +29146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>145</v>
       </c>
@@ -29171,7 +29172,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>167</v>
       </c>
@@ -29197,7 +29198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>170</v>
       </c>
@@ -29223,7 +29224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>172</v>
       </c>
@@ -29249,7 +29250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>175</v>
       </c>
@@ -29275,7 +29276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>192</v>
       </c>
@@ -29301,7 +29302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>197</v>
       </c>
@@ -29327,7 +29328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>203</v>
       </c>
@@ -29353,7 +29354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>214</v>
       </c>
@@ -29379,7 +29380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>230</v>
       </c>
@@ -29405,7 +29406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>234</v>
       </c>
@@ -29431,7 +29432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>236</v>
       </c>
@@ -29457,7 +29458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>258</v>
       </c>
@@ -29483,7 +29484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>264</v>
       </c>
@@ -29509,7 +29510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>266</v>
       </c>
@@ -29535,7 +29536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>267</v>
       </c>
@@ -29561,7 +29562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>274</v>
       </c>
@@ -29587,7 +29588,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>303</v>
       </c>
@@ -29613,7 +29614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>309</v>
       </c>
@@ -29639,7 +29640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>327</v>
       </c>
@@ -29665,7 +29666,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>333</v>
       </c>
@@ -29691,7 +29692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>336</v>
       </c>
@@ -29717,7 +29718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>346</v>
       </c>
@@ -29743,7 +29744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>348</v>
       </c>
@@ -29769,7 +29770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>373</v>
       </c>
@@ -29795,7 +29796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>381</v>
       </c>
@@ -29821,7 +29822,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>386</v>
       </c>
@@ -29847,7 +29848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>398</v>
       </c>
@@ -29873,7 +29874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>406</v>
       </c>
@@ -29899,7 +29900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>418</v>
       </c>
@@ -29925,7 +29926,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>422</v>
       </c>
@@ -29951,7 +29952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>439</v>
       </c>
@@ -29977,7 +29978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>463</v>
       </c>
@@ -30003,7 +30004,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>496</v>
       </c>
@@ -30029,7 +30030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>502</v>
       </c>
@@ -30055,7 +30056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>506</v>
       </c>
@@ -30081,7 +30082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>509</v>
       </c>
@@ -30107,7 +30108,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>538</v>
       </c>
@@ -30133,7 +30134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>552</v>
       </c>
@@ -30159,7 +30160,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>559</v>
       </c>
@@ -30185,7 +30186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>566</v>
       </c>
@@ -30211,7 +30212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>574</v>
       </c>
@@ -30237,7 +30238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>10</v>
       </c>
@@ -30254,7 +30255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>42</v>
       </c>
@@ -30271,7 +30272,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>72</v>
       </c>
@@ -30288,7 +30289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>94</v>
       </c>
@@ -30305,7 +30306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>123</v>
       </c>
@@ -30322,7 +30323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>137</v>
       </c>
@@ -30339,7 +30340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>139</v>
       </c>
@@ -30356,7 +30357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>150</v>
       </c>
@@ -30373,7 +30374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>151</v>
       </c>
@@ -30390,7 +30391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>156</v>
       </c>
@@ -30407,7 +30408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>158</v>
       </c>
@@ -30424,7 +30425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>166</v>
       </c>
@@ -30441,7 +30442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>177</v>
       </c>
@@ -30458,7 +30459,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>200</v>
       </c>
@@ -30475,7 +30476,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>235</v>
       </c>
@@ -30492,7 +30493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>242</v>
       </c>
@@ -30509,7 +30510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>272</v>
       </c>
@@ -30526,7 +30527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>284</v>
       </c>
@@ -30543,7 +30544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>290</v>
       </c>
@@ -30560,7 +30561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>310</v>
       </c>
@@ -30577,7 +30578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>313</v>
       </c>
@@ -30594,7 +30595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>321</v>
       </c>
@@ -30611,7 +30612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>366</v>
       </c>
@@ -30628,7 +30629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>371</v>
       </c>
@@ -30645,7 +30646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>416</v>
       </c>
@@ -30662,7 +30663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>450</v>
       </c>
@@ -30679,7 +30680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>453</v>
       </c>
@@ -30696,7 +30697,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>474</v>
       </c>
@@ -30713,7 +30714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>526</v>
       </c>
@@ -30730,7 +30731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>560</v>
       </c>
@@ -30747,7 +30748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>563</v>
       </c>
@@ -30764,7 +30765,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>577</v>
       </c>
